--- a/Data/3. 기업회원.xlsx
+++ b/Data/3. 기업회원.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091506C8-B176-4F6E-90E3-09E2506DC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22659253-9473-4E29-882A-8898BAAA8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C7617E98-B0A4-4059-A0E5-3DA07315763F}"/>
+    <workbookView xWindow="10305" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{C7617E98-B0A4-4059-A0E5-3DA07315763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사업등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 유효기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강민지</t>
   </si>
   <si>
@@ -1857,6 +1849,14 @@
   </si>
   <si>
     <t>010-1234-5777</t>
+  </si>
+  <si>
+    <t>개인정보_유효기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C234D7-EB59-4430-8226-E55D1D613B8B}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2281,10 +2281,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2293,42 +2293,42 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -2345,22 +2345,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2377,22 +2377,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2409,22 +2409,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2441,22 +2441,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -2505,22 +2505,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -2537,22 +2537,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -2569,22 +2569,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2601,22 +2601,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2633,22 +2633,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -2665,22 +2665,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2697,22 +2697,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -2729,22 +2729,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2761,22 +2761,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -2793,22 +2793,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2825,22 +2825,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2857,22 +2857,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -2921,22 +2921,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -2953,22 +2953,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -2985,22 +2985,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -3017,22 +3017,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -3049,22 +3049,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
@@ -3081,22 +3081,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
@@ -3113,22 +3113,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3209,22 +3209,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3241,22 +3241,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -3273,22 +3273,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
@@ -3305,22 +3305,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3337,22 +3337,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G35" s="1">
         <v>3</v>
@@ -3401,22 +3401,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G36" s="1">
         <v>3</v>
@@ -3433,22 +3433,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -3465,22 +3465,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -3497,22 +3497,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -3529,22 +3529,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -3561,22 +3561,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G41" s="1">
         <v>5</v>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G42" s="1">
         <v>5</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G44" s="1">
         <v>3</v>
@@ -3689,22 +3689,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G45" s="1">
         <v>3</v>
@@ -3721,22 +3721,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -3753,22 +3753,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -3785,22 +3785,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -3881,22 +3881,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G51" s="1">
         <v>5</v>
@@ -3913,22 +3913,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G52" s="1">
         <v>5</v>
@@ -3945,22 +3945,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G54" s="1">
         <v>3</v>
@@ -4009,22 +4009,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G55" s="1">
         <v>3</v>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G56" s="1">
         <v>5</v>
@@ -4073,22 +4073,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -4105,22 +4105,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G58" s="1">
         <v>5</v>
@@ -4137,22 +4137,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -4169,22 +4169,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -4201,22 +4201,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -4233,22 +4233,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G63" s="1">
         <v>5</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G64" s="1">
         <v>5</v>
@@ -4329,22 +4329,22 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G67" s="1">
         <v>3</v>
@@ -4425,22 +4425,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G68" s="1">
         <v>3</v>
@@ -4457,22 +4457,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -4521,22 +4521,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G71" s="1">
         <v>5</v>
@@ -4553,22 +4553,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -4585,22 +4585,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -4617,22 +4617,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G74" s="1">
         <v>5</v>
@@ -4649,22 +4649,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G75" s="1">
         <v>5</v>
@@ -4681,22 +4681,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -4713,22 +4713,22 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G78" s="1">
         <v>3</v>
@@ -4777,22 +4777,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G79" s="1">
         <v>3</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -4841,22 +4841,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -4873,22 +4873,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G82" s="1">
         <v>3</v>
@@ -4905,22 +4905,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
@@ -4937,22 +4937,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G84" s="1">
         <v>5</v>
@@ -4969,22 +4969,22 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -5001,22 +5001,22 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G86" s="1">
         <v>3</v>
@@ -5033,22 +5033,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G87" s="1">
         <v>3</v>
@@ -5065,22 +5065,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -5129,22 +5129,22 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G90" s="1">
         <v>3</v>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G91" s="1">
         <v>3</v>
@@ -5193,22 +5193,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G93" s="1">
         <v>5</v>
@@ -5257,22 +5257,22 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G94" s="1">
         <v>3</v>
@@ -5289,22 +5289,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -5321,22 +5321,22 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G96" s="1">
         <v>3</v>
@@ -5353,22 +5353,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G97" s="1">
         <v>3</v>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G98" s="1">
         <v>5</v>
@@ -5417,22 +5417,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -5449,22 +5449,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G100" s="1">
         <v>3</v>
@@ -5481,22 +5481,22 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
